--- a/Results/SummariesOfResults/Cardiovascular_Diseases_Raw_Results.xlsx
+++ b/Results/SummariesOfResults/Cardiovascular_Diseases_Raw_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\oneDrive\OneDrive - agu.edu.tr\ParameterOptimizationStudy\Results\SummariesOfResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39A51EF-7D38-46CF-90BA-69C9A0EA4CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D64D20E-E9B7-47CD-8CC4-F219D5D8C297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cleveland" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="71">
   <si>
     <t>Bayes</t>
   </si>
@@ -465,15 +465,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -486,7 +478,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,23 +784,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="15" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="15"/>
       <c r="Q1" s="9" t="s">
         <v>20</v>
       </c>
@@ -861,13 +861,13 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="10">
@@ -914,8 +914,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="12"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -932,11 +932,11 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="10">
         <v>0.81399999999999995</v>
       </c>
@@ -1019,13 +1019,13 @@
       <c r="Q7" s="10"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="10">
@@ -1072,9 +1072,9 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -1091,11 +1091,11 @@
       <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="10">
         <v>0.77700000000000002</v>
       </c>
@@ -1140,9 +1140,9 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="12"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1159,11 +1159,11 @@
       <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="10">
         <v>0.83399999999999996</v>
       </c>
@@ -1208,9 +1208,9 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="12"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -1227,11 +1227,11 @@
       <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="10">
         <v>0.83099999999999996</v>
       </c>
@@ -1314,13 +1314,13 @@
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="10">
@@ -1367,9 +1367,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="12"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -1386,11 +1386,11 @@
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -1445,13 +1445,13 @@
       <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="10">
@@ -1498,9 +1498,9 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="12"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -1517,11 +1517,11 @@
       <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="10">
         <v>0.78400000000000003</v>
       </c>
@@ -1566,9 +1566,9 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="12"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -1585,11 +1585,11 @@
       <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="10">
         <v>0.79100000000000004</v>
       </c>
@@ -1634,9 +1634,9 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="12"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -1653,11 +1653,11 @@
       <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="12"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="10">
         <v>0.80700000000000005</v>
       </c>
@@ -1702,9 +1702,9 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="12"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -1721,11 +1721,11 @@
       <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="12"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="10">
         <v>0.54100000000000004</v>
       </c>
@@ -1770,9 +1770,9 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="12"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -1789,11 +1789,11 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="12"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="10">
         <v>0.77400000000000002</v>
       </c>
@@ -1838,9 +1838,9 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="12"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -1857,11 +1857,11 @@
       <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="12"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="10">
         <v>0.83099999999999996</v>
       </c>
@@ -1906,9 +1906,9 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="12"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -1925,11 +1925,11 @@
       <c r="Q35" s="10"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="12"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="10">
         <v>0.83799999999999997</v>
       </c>
@@ -1974,9 +1974,9 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="12"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -1993,11 +1993,11 @@
       <c r="Q37" s="10"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="12"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="10">
         <v>0.83099999999999996</v>
       </c>
@@ -2042,9 +2042,9 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="12"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -2061,11 +2061,11 @@
       <c r="Q39" s="10"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="12"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="10">
         <v>0.78</v>
       </c>
@@ -2110,9 +2110,9 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="12"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -2129,11 +2129,11 @@
       <c r="Q41" s="10"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="12"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="10">
         <v>0.80700000000000005</v>
       </c>
@@ -2178,9 +2178,9 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="12"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -2197,11 +2197,11 @@
       <c r="Q43" s="10"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="13"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="10">
         <v>0.54100000000000004</v>
       </c>
@@ -2303,11 +2303,11 @@
       <c r="Q47" s="10"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="7"/>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D48" s="10"/>
@@ -2326,11 +2326,11 @@
       <c r="Q48" s="10"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="12"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="10">
         <v>0.54100000000000004</v>
       </c>
@@ -2375,9 +2375,9 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -2413,11 +2413,11 @@
       <c r="Q51" s="10"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B52" s="7"/>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D52" s="10"/>
@@ -2436,11 +2436,11 @@
       <c r="Q52" s="10"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="12"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="10">
         <v>0.79100000000000004</v>
       </c>
@@ -2485,9 +2485,9 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="12"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
@@ -2504,11 +2504,11 @@
       <c r="Q54" s="10"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="12"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="10">
         <v>0.78</v>
       </c>
@@ -2553,9 +2553,9 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="13"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
@@ -2591,7 +2591,7 @@
       <c r="Q57" s="10"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B58" s="7"/>
@@ -2612,11 +2612,11 @@
       <c r="Q58" s="10"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D59" s="10">
@@ -2663,9 +2663,9 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="12"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
@@ -2682,11 +2682,11 @@
       <c r="Q60" s="10"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="12"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="10">
         <v>0.81799999999999995</v>
       </c>
@@ -2731,9 +2731,9 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="12"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -2750,11 +2750,11 @@
       <c r="Q62" s="10"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="12"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="10">
         <v>0.76</v>
       </c>
@@ -2799,9 +2799,9 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="7"/>
-      <c r="C64" s="12"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
@@ -2818,11 +2818,11 @@
       <c r="Q64" s="10"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C65" s="12"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="10">
         <v>0.82799999999999996</v>
       </c>
@@ -2867,9 +2867,9 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="7"/>
-      <c r="C66" s="12"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -2886,11 +2886,11 @@
       <c r="Q66" s="10"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="12"/>
+      <c r="C67" s="17"/>
       <c r="D67" s="10">
         <v>0.81799999999999995</v>
       </c>
@@ -2935,9 +2935,9 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="12"/>
+      <c r="C68" s="17"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
@@ -2954,11 +2954,11 @@
       <c r="Q68" s="10"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="12"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="10">
         <v>0.73599999999999999</v>
       </c>
@@ -3003,9 +3003,9 @@
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="12"/>
+      <c r="C70" s="17"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
@@ -3022,11 +3022,11 @@
       <c r="Q70" s="10"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="12"/>
+      <c r="C71" s="17"/>
       <c r="D71" s="10">
         <v>0.77400000000000002</v>
       </c>
@@ -3071,9 +3071,9 @@
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="14"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="13"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -3091,6 +3091,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="C59:C72"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A58:A72"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="A17:A19"/>
@@ -3101,12 +3107,6 @@
     <mergeCell ref="C8:C14"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C22:C44"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="C59:C72"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A58:A72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3129,23 +3129,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="15" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="15"/>
       <c r="Q1" s="9" t="s">
         <v>20</v>
       </c>
@@ -3206,13 +3206,13 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="10">
@@ -3259,8 +3259,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="12"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -3277,11 +3277,11 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="10">
         <v>0.67500000000000004</v>
       </c>
@@ -3364,13 +3364,13 @@
       <c r="Q7" s="10"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="10">
@@ -3417,9 +3417,9 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -3436,11 +3436,11 @@
       <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="10">
         <v>0.67700000000000005</v>
       </c>
@@ -3485,9 +3485,9 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="12"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -3504,11 +3504,11 @@
       <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="10">
         <v>0.71899999999999997</v>
       </c>
@@ -3553,9 +3553,9 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="12"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -3572,11 +3572,11 @@
       <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="10">
         <v>0.71599999999999997</v>
       </c>
@@ -3659,13 +3659,13 @@
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="10">
@@ -3712,9 +3712,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="12"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -3731,11 +3731,11 @@
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -3790,13 +3790,13 @@
       <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="10">
@@ -3843,9 +3843,9 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="12"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -3862,11 +3862,11 @@
       <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="10">
         <v>0.69</v>
       </c>
@@ -3911,9 +3911,9 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="12"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -3930,11 +3930,11 @@
       <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="10">
         <v>0.71</v>
       </c>
@@ -3979,9 +3979,9 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="12"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -3998,11 +3998,11 @@
       <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="12"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="10">
         <v>0.71399999999999997</v>
       </c>
@@ -4047,9 +4047,9 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="12"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -4066,11 +4066,11 @@
       <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="12"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="10">
         <v>0.65400000000000003</v>
       </c>
@@ -4115,9 +4115,9 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="12"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -4134,11 +4134,11 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="12"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="10">
         <v>0.68799999999999994</v>
       </c>
@@ -4183,9 +4183,9 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="12"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -4202,11 +4202,11 @@
       <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="12"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="10">
         <v>0.71199999999999997</v>
       </c>
@@ -4251,9 +4251,9 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="12"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -4270,11 +4270,11 @@
       <c r="Q35" s="10"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="12"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="10">
         <v>0.70799999999999996</v>
       </c>
@@ -4319,9 +4319,9 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="12"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -4338,11 +4338,11 @@
       <c r="Q37" s="10"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="12"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="10">
         <v>0.72099999999999997</v>
       </c>
@@ -4387,9 +4387,9 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="12"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -4406,11 +4406,11 @@
       <c r="Q39" s="10"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="12"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="10">
         <v>0.63</v>
       </c>
@@ -4455,9 +4455,9 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="12"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -4474,11 +4474,11 @@
       <c r="Q41" s="10"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="12"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="10">
         <v>0.68400000000000005</v>
       </c>
@@ -4523,9 +4523,9 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="12"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -4542,11 +4542,11 @@
       <c r="Q43" s="10"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="13"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="10">
         <v>0.65400000000000003</v>
       </c>
@@ -4648,11 +4648,11 @@
       <c r="Q47" s="10"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="7"/>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D48" s="10"/>
@@ -4671,11 +4671,11 @@
       <c r="Q48" s="10"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="12"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="10">
         <v>0.65400000000000003</v>
       </c>
@@ -4720,9 +4720,9 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -4758,11 +4758,11 @@
       <c r="Q51" s="10"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B52" s="7"/>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D52" s="10"/>
@@ -4781,11 +4781,11 @@
       <c r="Q52" s="10"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="12"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="10">
         <v>0.69499999999999995</v>
       </c>
@@ -4830,9 +4830,9 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="12"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
@@ -4849,11 +4849,11 @@
       <c r="Q54" s="10"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="12"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="10">
         <v>0.71199999999999997</v>
       </c>
@@ -4898,9 +4898,9 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="13"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
@@ -4936,11 +4936,11 @@
       <c r="Q57" s="10"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B58" s="7"/>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D58" s="10"/>
@@ -4959,11 +4959,11 @@
       <c r="Q58" s="10"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="12"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="10">
         <v>0.65400000000000003</v>
       </c>
@@ -5008,9 +5008,9 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="12"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
@@ -5027,11 +5027,11 @@
       <c r="Q60" s="10"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="12"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="10">
         <v>0.69</v>
       </c>
@@ -5076,9 +5076,9 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="12"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -5095,11 +5095,11 @@
       <c r="Q62" s="10"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="12"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="10">
         <v>0.67100000000000004</v>
       </c>
@@ -5144,9 +5144,9 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="7"/>
-      <c r="C64" s="12"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
@@ -5163,11 +5163,11 @@
       <c r="Q64" s="10"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C65" s="12"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="10">
         <v>0.72099999999999997</v>
       </c>
@@ -5212,9 +5212,9 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="7"/>
-      <c r="C66" s="12"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -5231,11 +5231,11 @@
       <c r="Q66" s="10"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="12"/>
+      <c r="C67" s="17"/>
       <c r="D67" s="10">
         <v>0.66200000000000003</v>
       </c>
@@ -5280,9 +5280,9 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="12"/>
+      <c r="C68" s="17"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
@@ -5299,11 +5299,11 @@
       <c r="Q68" s="10"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="12"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="10">
         <v>0.61499999999999999</v>
       </c>
@@ -5348,9 +5348,9 @@
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="12"/>
+      <c r="C70" s="17"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
@@ -5367,11 +5367,11 @@
       <c r="Q70" s="10"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="12"/>
+      <c r="C71" s="17"/>
       <c r="D71" s="10">
         <v>0.66200000000000003</v>
       </c>
@@ -5416,9 +5416,9 @@
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="14"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="13"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -5436,22 +5436,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A22:A44"/>
-    <mergeCell ref="C22:C44"/>
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="C17:C19"/>
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="C52:C56"/>
     <mergeCell ref="C58:C72"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A58:A72"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A22:A44"/>
+    <mergeCell ref="C22:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5461,8 +5461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6074482-5FA4-4355-B992-06980A767B31}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5473,23 +5473,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="15" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="15"/>
       <c r="Q1" s="9" t="s">
         <v>20</v>
       </c>
@@ -5550,122 +5550,122 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="11">
         <v>0.85699999999999998</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="11">
         <v>0.85899999999999999</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="11">
         <v>0.85699999999999998</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="11">
         <v>0.85699999999999998</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="11">
         <v>0.71499999999999997</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="11">
         <v>0.90200000000000002</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="11">
         <v>0.89700000000000002</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="11">
         <v>0.16739999999999999</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="11">
         <v>0.35</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="11">
         <v>85.71</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="11">
         <v>33.65</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="11">
         <v>70.180000000000007</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
+      <c r="A4" s="12"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="18">
+      <c r="C5" s="18"/>
+      <c r="D5" s="11">
         <v>0.83</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="11">
         <v>0.17199999999999999</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="11">
         <v>0.83</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="11">
         <v>0.83</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="11">
         <v>0.83</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="11">
         <v>0.65800000000000003</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="11">
         <v>0.90900000000000003</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="11">
         <v>0.90300000000000002</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="11">
         <v>0.18410000000000001</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="11">
         <v>0.3609</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="11">
         <v>83.01</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="11">
         <v>37.008000000000003</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="11">
         <v>72.37</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="11">
         <v>0.01</v>
       </c>
     </row>
@@ -5673,294 +5673,294 @@
       <c r="A6" s="4"/>
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="11">
         <v>0.84399999999999997</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="11">
         <v>0.157</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="11">
         <v>0.84399999999999997</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="11">
         <v>0.84399999999999997</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="11">
         <v>0.84399999999999997</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="11">
         <v>0.68600000000000005</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="11">
         <v>0.90500000000000003</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="11">
         <v>0.90200000000000002</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="11">
         <v>0.22220000000000001</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="11">
         <v>0.34310000000000002</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="11">
         <v>84.36</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="11">
         <v>44.67</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="11">
         <v>68.8</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="11">
         <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="18">
+      <c r="C10" s="17"/>
+      <c r="D10" s="11">
         <v>0.80100000000000005</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="11">
         <v>0.20200000000000001</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="11">
         <v>0.80100000000000005</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="11">
         <v>0.80100000000000005</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="11">
         <v>0.80100000000000005</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="11">
         <v>0.59899999999999998</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="11">
         <v>0.86799999999999999</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="11">
         <v>0.85899999999999999</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="11">
         <v>0.2077</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="11">
         <v>0.42230000000000001</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="11">
         <v>80.05</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="11">
         <v>41.76</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="11">
         <v>84.68</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="11">
         <v>0.48</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="18">
+      <c r="C12" s="17"/>
+      <c r="D12" s="11">
         <v>0.83</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="11">
         <v>0.17</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="11">
         <v>0.83</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="11">
         <v>0.83</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="11">
         <v>0.83</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="11">
         <v>0.65900000000000003</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="11">
         <v>0.83</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="11">
         <v>0.77500000000000002</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="11">
         <v>0.16980000000000001</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="11">
         <v>0.41210000000000002</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="11">
         <v>83.01</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="11">
         <v>34.14</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="11">
         <v>82.63</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="11">
         <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="18">
+      <c r="C14" s="18"/>
+      <c r="D14" s="11">
         <v>0.83599999999999997</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="11">
         <v>0.16500000000000001</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="11">
         <v>0.83599999999999997</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="11">
         <v>0.83599999999999997</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="11">
         <v>0.83599999999999997</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="11">
         <v>0.67</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="11">
         <v>0.83499999999999996</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="11">
         <v>0.78100000000000003</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="11">
         <v>0.16439999999999999</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="11">
         <v>0.40550000000000003</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="11">
         <v>83.55</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="11">
         <v>33.057000000000002</v>
       </c>
-      <c r="P14" s="18">
+      <c r="P14" s="11">
         <v>81.31</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="11">
         <v>0.01</v>
       </c>
     </row>
@@ -5968,158 +5968,158 @@
       <c r="A15" s="4"/>
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="7"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="11">
         <v>0.76800000000000002</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="11">
         <v>0.23599999999999999</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="11">
         <v>0.76800000000000002</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="11">
         <v>0.76800000000000002</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="11">
         <v>0.76800000000000002</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="11">
         <v>0.53300000000000003</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="11">
         <v>0.76200000000000001</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="11">
         <v>0.70599999999999996</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="11">
         <v>0.2334</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="11">
         <v>0.48</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="11">
         <v>76.81</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="11">
         <v>46.92</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P17" s="11">
         <v>96.25</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="18">
+      <c r="C19" s="18"/>
+      <c r="D19" s="11">
         <v>0.71399999999999997</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="11">
         <v>0.28399999999999997</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="11">
         <v>0.71699999999999997</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="11">
         <v>0.71399999999999997</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="11">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="11">
         <v>0.42899999999999999</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="11">
         <v>0.85599999999999998</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="11">
         <v>0.84399999999999997</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="11">
         <v>0.35270000000000001</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="11">
         <v>0.43309999999999998</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="11">
         <v>71.42</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19" s="11">
         <v>70.900000000000006</v>
       </c>
-      <c r="P19" s="18">
+      <c r="P19" s="11">
         <v>86.84</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19" s="11">
         <v>0</v>
       </c>
     </row>
@@ -6127,838 +6127,838 @@
       <c r="A20" s="4"/>
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="7"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="11">
         <v>0.82199999999999995</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="11">
         <v>0.17699999999999999</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="11">
         <v>0.82299999999999995</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="11">
         <v>0.82199999999999995</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="11">
         <v>0.82199999999999995</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="11">
         <v>0.64300000000000002</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="11">
         <v>0.89600000000000002</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="11">
         <v>0.88100000000000001</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="11">
         <v>0.2324</v>
       </c>
-      <c r="M22" s="18">
+      <c r="M22" s="11">
         <v>0.3569</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="11">
         <v>82.21</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="11">
         <v>46.72</v>
       </c>
-      <c r="P22" s="18">
+      <c r="P22" s="11">
         <v>71.56</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="Q22" s="11">
         <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="18">
+      <c r="C24" s="17"/>
+      <c r="D24" s="11">
         <v>0.83799999999999997</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="11">
         <v>0.16200000000000001</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="11">
         <v>0.83899999999999997</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="11">
         <v>0.83799999999999997</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="11">
         <v>0.83799999999999997</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="11">
         <v>0.67500000000000004</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="11">
         <v>0.83599999999999997</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="11">
         <v>0.79300000000000004</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="11">
         <v>0.23780000000000001</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="11">
         <v>0.37280000000000002</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="11">
         <v>83.82</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="11">
         <v>47.81</v>
       </c>
-      <c r="P24" s="18">
+      <c r="P24" s="11">
         <v>74.739999999999995</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24" s="11">
         <v>0.03</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="18">
+      <c r="C26" s="17"/>
+      <c r="D26" s="11">
         <v>0.81699999999999995</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="11">
         <v>0.188</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="11">
         <v>0.81699999999999995</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="11">
         <v>0.81699999999999995</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="11">
         <v>0.81599999999999995</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="11">
         <v>0.63100000000000001</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="11">
         <v>0.89900000000000002</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="11">
         <v>0.89300000000000002</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="11">
         <v>0.2656</v>
       </c>
-      <c r="M26" s="18">
+      <c r="M26" s="11">
         <v>0.35410000000000003</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="11">
         <v>81.67</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O26" s="11">
         <v>53.39</v>
       </c>
-      <c r="P26" s="18">
+      <c r="P26" s="11">
         <v>71.010000000000005</v>
       </c>
-      <c r="Q26" s="18">
+      <c r="Q26" s="11">
         <v>0.04</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="18">
+      <c r="C28" s="17"/>
+      <c r="D28" s="11">
         <v>0.82499999999999996</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="11">
         <v>0.17199999999999999</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="11">
         <v>0.82699999999999996</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="11">
         <v>0.82499999999999996</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="11">
         <v>0.82499999999999996</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="11">
         <v>0.65100000000000002</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="11">
         <v>0.89800000000000002</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="11">
         <v>0.88700000000000001</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L28" s="11">
         <v>0.24740000000000001</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M28" s="11">
         <v>0.35320000000000001</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N28" s="11">
         <v>82.47</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O28" s="11">
         <v>49.74</v>
       </c>
-      <c r="P28" s="18">
+      <c r="P28" s="11">
         <v>70.819999999999993</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="Q28" s="11">
         <v>0.04</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="18">
+      <c r="C30" s="17"/>
+      <c r="D30" s="11">
         <v>0.53600000000000003</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="11">
         <v>0.53600000000000003</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="11">
         <v>0.53600000000000003</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="11">
         <v>0.49299999999999999</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="11">
         <v>0.499</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="11">
         <v>0.49740000000000001</v>
       </c>
-      <c r="M30" s="18">
+      <c r="M30" s="11">
         <v>0.49869999999999998</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="11">
         <v>53.63</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O30" s="11">
         <v>100</v>
       </c>
-      <c r="P30" s="18">
+      <c r="P30" s="11">
         <v>100</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="Q30" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="18">
+      <c r="C32" s="17"/>
+      <c r="D32" s="11">
         <v>0.85399999999999998</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="11">
         <v>0.14599999999999999</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="11">
         <v>0.85499999999999998</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="11">
         <v>0.85399999999999998</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="11">
         <v>0.85499999999999998</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="11">
         <v>0.70799999999999996</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="11">
         <v>0.85799999999999998</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="11">
         <v>0.81899999999999995</v>
       </c>
-      <c r="L32" s="18">
+      <c r="L32" s="11">
         <v>0.224</v>
       </c>
-      <c r="M32" s="18">
+      <c r="M32" s="11">
         <v>0.35610000000000003</v>
       </c>
-      <c r="N32" s="18">
+      <c r="N32" s="11">
         <v>85.44</v>
       </c>
-      <c r="O32" s="18">
+      <c r="O32" s="11">
         <v>45.03</v>
       </c>
-      <c r="P32" s="18">
+      <c r="P32" s="11">
         <v>71.41</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="Q32" s="11">
         <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="18">
+      <c r="C34" s="17"/>
+      <c r="D34" s="11">
         <v>0.81699999999999995</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="11">
         <v>0.184</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="11">
         <v>0.81699999999999995</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="11">
         <v>0.81699999999999995</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="11">
         <v>0.81699999999999995</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="11">
         <v>0.63200000000000001</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="11">
         <v>0.89800000000000002</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="11">
         <v>0.88400000000000001</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L34" s="11">
         <v>0.24390000000000001</v>
       </c>
-      <c r="M34" s="18">
+      <c r="M34" s="11">
         <v>0.35320000000000001</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N34" s="11">
         <v>81.61</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O34" s="11">
         <v>49.04</v>
       </c>
-      <c r="P34" s="18">
+      <c r="P34" s="11">
         <v>70.81</v>
       </c>
-      <c r="Q34" s="18">
+      <c r="Q34" s="11">
         <v>0.13</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="18">
+      <c r="C36" s="17"/>
+      <c r="D36" s="11">
         <v>0.83</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="11">
         <v>0.17</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="11">
         <v>0.83</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="11">
         <v>0.83</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="11">
         <v>0.83</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="11">
         <v>0.65900000000000003</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="11">
         <v>0.9</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="11">
         <v>0.89100000000000001</v>
       </c>
-      <c r="L36" s="18">
+      <c r="L36" s="11">
         <v>0.23350000000000001</v>
       </c>
-      <c r="M36" s="18">
+      <c r="M36" s="11">
         <v>0.35589999999999999</v>
       </c>
-      <c r="N36" s="18">
+      <c r="N36" s="11">
         <v>83.01</v>
       </c>
-      <c r="O36" s="18">
+      <c r="O36" s="11">
         <v>46.93</v>
       </c>
-      <c r="P36" s="18">
+      <c r="P36" s="11">
         <v>71.36</v>
       </c>
-      <c r="Q36" s="18">
+      <c r="Q36" s="11">
         <v>0.01</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="18">
+      <c r="C38" s="17"/>
+      <c r="D38" s="11">
         <v>0.84399999999999997</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="11">
         <v>0.157</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="11">
         <v>0.84399999999999997</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="11">
         <v>0.84399999999999997</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="11">
         <v>0.84399999999999997</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I38" s="11">
         <v>0.68600000000000005</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="11">
         <v>0.90500000000000003</v>
       </c>
-      <c r="K38" s="18">
+      <c r="K38" s="11">
         <v>0.90200000000000002</v>
       </c>
-      <c r="L38" s="18">
+      <c r="L38" s="11">
         <v>0.22220000000000001</v>
       </c>
-      <c r="M38" s="18">
+      <c r="M38" s="11">
         <v>0.34310000000000002</v>
       </c>
-      <c r="N38" s="18">
+      <c r="N38" s="11">
         <v>84.36</v>
       </c>
-      <c r="O38" s="18">
+      <c r="O38" s="11">
         <v>44.67</v>
       </c>
-      <c r="P38" s="18">
+      <c r="P38" s="11">
         <v>68.8</v>
       </c>
-      <c r="Q38" s="18">
+      <c r="Q38" s="11">
         <v>0.01</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="18">
+      <c r="C40" s="17"/>
+      <c r="D40" s="11">
         <v>0.80600000000000005</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="11">
         <v>0.19500000000000001</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="11">
         <v>0.80600000000000005</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="11">
         <v>0.80600000000000005</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="11">
         <v>0.80600000000000005</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="11">
         <v>0.61</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J40" s="11">
         <v>0.876</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="11">
         <v>0.85699999999999998</v>
       </c>
-      <c r="L40" s="18">
+      <c r="L40" s="11">
         <v>0.25390000000000001</v>
       </c>
-      <c r="M40" s="18">
+      <c r="M40" s="11">
         <v>0.37669999999999998</v>
       </c>
-      <c r="N40" s="18">
+      <c r="N40" s="11">
         <v>80.59</v>
       </c>
-      <c r="O40" s="18">
+      <c r="O40" s="11">
         <v>51.05</v>
       </c>
-      <c r="P40" s="18">
+      <c r="P40" s="11">
         <v>75.53</v>
       </c>
-      <c r="Q40" s="18">
+      <c r="Q40" s="11">
         <v>0.04</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="18">
+      <c r="C42" s="17"/>
+      <c r="D42" s="11">
         <v>0.81699999999999995</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="11">
         <v>0.183</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="11">
         <v>0.81699999999999995</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="11">
         <v>0.81699999999999995</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="11">
         <v>0.81699999999999995</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="11">
         <v>0.63300000000000001</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="11">
         <v>0.89300000000000002</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K42" s="11">
         <v>0.88600000000000001</v>
       </c>
-      <c r="L42" s="18">
+      <c r="L42" s="11">
         <v>0.31309999999999999</v>
       </c>
-      <c r="M42" s="18">
+      <c r="M42" s="11">
         <v>0.3695</v>
       </c>
-      <c r="N42" s="18">
+      <c r="N42" s="11">
         <v>81.67</v>
       </c>
-      <c r="O42" s="18">
+      <c r="O42" s="11">
         <v>62.94</v>
       </c>
-      <c r="P42" s="18">
+      <c r="P42" s="11">
         <v>74.09</v>
       </c>
-      <c r="Q42" s="18">
+      <c r="Q42" s="11">
         <v>0.01</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="18">
+      <c r="C44" s="18"/>
+      <c r="D44" s="11">
         <v>0.53600000000000003</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="11">
         <v>0.53600000000000003</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="11">
         <v>0.53600000000000003</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J44" s="18">
+      <c r="J44" s="11">
         <v>0.49299999999999999</v>
       </c>
-      <c r="K44" s="18">
+      <c r="K44" s="11">
         <v>0.499</v>
       </c>
-      <c r="L44" s="18">
+      <c r="L44" s="11">
         <v>0.49740000000000001</v>
       </c>
-      <c r="M44" s="18">
+      <c r="M44" s="11">
         <v>0.49869999999999998</v>
       </c>
-      <c r="N44" s="18">
+      <c r="N44" s="11">
         <v>53.63</v>
       </c>
-      <c r="O44" s="18">
+      <c r="O44" s="11">
         <v>100</v>
       </c>
-      <c r="P44" s="18">
+      <c r="P44" s="11">
         <v>100</v>
       </c>
-      <c r="Q44" s="18">
+      <c r="Q44" s="11">
         <v>0</v>
       </c>
     </row>
@@ -6966,831 +6966,831 @@
       <c r="A45" s="4"/>
       <c r="B45" s="7"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="7"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="7"/>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="18">
+      <c r="C49" s="17"/>
+      <c r="D49" s="11">
         <v>0.53600000000000003</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="11">
         <v>0.53600000000000003</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="11">
         <v>0.53600000000000003</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="H49" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I49" s="18" t="s">
+      <c r="I49" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J49" s="18">
+      <c r="J49" s="11">
         <v>0.49299999999999999</v>
       </c>
-      <c r="K49" s="18">
+      <c r="K49" s="11">
         <v>0.499</v>
       </c>
-      <c r="L49" s="18">
+      <c r="L49" s="11">
         <v>0.49740000000000001</v>
       </c>
-      <c r="M49" s="18">
+      <c r="M49" s="11">
         <v>0.49869999999999998</v>
       </c>
-      <c r="N49" s="18">
+      <c r="N49" s="11">
         <v>53.63</v>
       </c>
-      <c r="O49" s="18">
+      <c r="O49" s="11">
         <v>100</v>
       </c>
-      <c r="P49" s="18">
+      <c r="P49" s="11">
         <v>100</v>
       </c>
-      <c r="Q49" s="18">
+      <c r="Q49" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="7"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B52" s="7"/>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="18">
+      <c r="C53" s="17"/>
+      <c r="D53" s="11">
         <v>0.79500000000000004</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="11">
         <v>0.20100000000000001</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="11">
         <v>0.79900000000000004</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="11">
         <v>0.79500000000000004</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="11">
         <v>0.79500000000000004</v>
       </c>
-      <c r="I53" s="18">
+      <c r="I53" s="11">
         <v>0.59299999999999997</v>
       </c>
-      <c r="J53" s="18">
+      <c r="J53" s="11">
         <v>0.875</v>
       </c>
-      <c r="K53" s="18">
+      <c r="K53" s="11">
         <v>0.86299999999999999</v>
       </c>
-      <c r="L53" s="18">
+      <c r="L53" s="11">
         <v>0.2797</v>
       </c>
-      <c r="M53" s="18">
+      <c r="M53" s="11">
         <v>0.37540000000000001</v>
       </c>
-      <c r="N53" s="18">
+      <c r="N53" s="11">
         <v>79.510000000000005</v>
       </c>
-      <c r="O53" s="18">
+      <c r="O53" s="11">
         <v>56.24</v>
       </c>
-      <c r="P53" s="18">
+      <c r="P53" s="11">
         <v>75.28</v>
       </c>
-      <c r="Q53" s="18">
+      <c r="Q53" s="11">
         <v>0.05</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="18">
+      <c r="C55" s="17"/>
+      <c r="D55" s="11">
         <v>0.84899999999999998</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="11">
         <v>0.14899999999999999</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="11">
         <v>0.85099999999999998</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="11">
         <v>0.84899999999999998</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="11">
         <v>0.84899999999999998</v>
       </c>
-      <c r="I55" s="18">
+      <c r="I55" s="11">
         <v>0.69899999999999995</v>
       </c>
-      <c r="J55" s="18">
+      <c r="J55" s="11">
         <v>0.87</v>
       </c>
-      <c r="K55" s="18">
+      <c r="K55" s="11">
         <v>0.85</v>
       </c>
-      <c r="L55" s="18">
+      <c r="L55" s="11">
         <v>0.2402</v>
       </c>
-      <c r="M55" s="18">
+      <c r="M55" s="11">
         <v>0.35770000000000002</v>
       </c>
-      <c r="N55" s="18">
+      <c r="N55" s="11">
         <v>84.9</v>
       </c>
-      <c r="O55" s="18">
+      <c r="O55" s="11">
         <v>48.29</v>
       </c>
-      <c r="P55" s="18">
+      <c r="P55" s="11">
         <v>71.73</v>
       </c>
-      <c r="Q55" s="18">
+      <c r="Q55" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="7"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B58" s="7"/>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="18">
+      <c r="C59" s="17"/>
+      <c r="D59" s="11">
         <v>0.71399999999999997</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="11">
         <v>0.28599999999999998</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="11">
         <v>0.71599999999999997</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="11">
         <v>0.71399999999999997</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H59" s="11">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I59" s="18">
+      <c r="I59" s="11">
         <v>0.42799999999999999</v>
       </c>
-      <c r="J59" s="18">
+      <c r="J59" s="11">
         <v>0.70299999999999996</v>
       </c>
-      <c r="K59" s="18">
+      <c r="K59" s="11">
         <v>0.66200000000000003</v>
       </c>
-      <c r="L59" s="18">
+      <c r="L59" s="11">
         <v>0.42730000000000001</v>
       </c>
-      <c r="M59" s="18">
+      <c r="M59" s="11">
         <v>0.3821</v>
       </c>
-      <c r="N59" s="18">
+      <c r="N59" s="11">
         <v>71.42</v>
       </c>
-      <c r="O59" s="18">
+      <c r="O59" s="11">
         <v>76.81</v>
       </c>
-      <c r="P59" s="18">
+      <c r="P59" s="11">
         <v>91.43</v>
       </c>
-      <c r="Q59" s="18">
+      <c r="Q59" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="18"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="18">
+      <c r="C61" s="17"/>
+      <c r="D61" s="11">
         <v>0.85399999999999998</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="11">
         <v>0.14399999999999999</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="11">
         <v>0.85599999999999998</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="11">
         <v>0.85399999999999998</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="11">
         <v>0.85499999999999998</v>
       </c>
-      <c r="I61" s="18">
+      <c r="I61" s="11">
         <v>0.70899999999999996</v>
       </c>
-      <c r="J61" s="18">
+      <c r="J61" s="11">
         <v>0.90100000000000002</v>
       </c>
-      <c r="K61" s="18">
+      <c r="K61" s="11">
         <v>0.89700000000000002</v>
       </c>
-      <c r="L61" s="18">
+      <c r="L61" s="11">
         <v>0.16089999999999999</v>
       </c>
-      <c r="M61" s="18">
+      <c r="M61" s="11">
         <v>0.35560000000000003</v>
       </c>
-      <c r="N61" s="18">
+      <c r="N61" s="11">
         <v>85.44</v>
       </c>
-      <c r="O61" s="18">
+      <c r="O61" s="11">
         <v>32.340000000000003</v>
       </c>
-      <c r="P61" s="18">
+      <c r="P61" s="11">
         <v>71.31</v>
       </c>
-      <c r="Q61" s="18">
+      <c r="Q61" s="11">
         <v>0.01</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="18">
+      <c r="C63" s="17"/>
+      <c r="D63" s="11">
         <v>0.78400000000000003</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="11">
         <v>0.219</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="11">
         <v>0.78400000000000003</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="11">
         <v>0.78400000000000003</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H63" s="11">
         <v>0.78400000000000003</v>
       </c>
-      <c r="I63" s="18">
+      <c r="I63" s="11">
         <v>0.56599999999999995</v>
       </c>
-      <c r="J63" s="18">
+      <c r="J63" s="11">
         <v>0.79</v>
       </c>
-      <c r="K63" s="18">
+      <c r="K63" s="11">
         <v>0.73199999999999998</v>
       </c>
-      <c r="L63" s="18">
+      <c r="L63" s="11">
         <v>0.26550000000000001</v>
       </c>
-      <c r="M63" s="18">
+      <c r="M63" s="11">
         <v>0.42830000000000001</v>
       </c>
-      <c r="N63" s="18">
+      <c r="N63" s="11">
         <v>78.430000000000007</v>
       </c>
-      <c r="O63" s="18">
+      <c r="O63" s="11">
         <v>53.37</v>
       </c>
-      <c r="P63" s="18">
+      <c r="P63" s="11">
         <v>85.88</v>
       </c>
-      <c r="Q63" s="18">
+      <c r="Q63" s="11">
         <v>0.01</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="7"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="18">
+      <c r="C65" s="17"/>
+      <c r="D65" s="11">
         <v>0.83599999999999997</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="11">
         <v>0.16400000000000001</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="11">
         <v>0.83599999999999997</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="11">
         <v>0.83599999999999997</v>
       </c>
-      <c r="H65" s="18">
+      <c r="H65" s="11">
         <v>0.83599999999999997</v>
       </c>
-      <c r="I65" s="18">
+      <c r="I65" s="11">
         <v>0.67</v>
       </c>
-      <c r="J65" s="18">
+      <c r="J65" s="11">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K65" s="18">
+      <c r="K65" s="11">
         <v>0.89800000000000002</v>
       </c>
-      <c r="L65" s="18">
+      <c r="L65" s="11">
         <v>0.22789999999999999</v>
       </c>
-      <c r="M65" s="18">
+      <c r="M65" s="11">
         <v>0.34620000000000001</v>
       </c>
-      <c r="N65" s="18">
+      <c r="N65" s="11">
         <v>83.55</v>
       </c>
-      <c r="O65" s="18">
+      <c r="O65" s="11">
         <v>45.81</v>
       </c>
-      <c r="P65" s="18">
+      <c r="P65" s="11">
         <v>69.42</v>
       </c>
-      <c r="Q65" s="18">
+      <c r="Q65" s="11">
         <v>0.17</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="7"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="18">
+      <c r="C67" s="17"/>
+      <c r="D67" s="11">
         <v>0.83</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="11">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="11">
         <v>0.83</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="11">
         <v>0.83</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H67" s="11">
         <v>0.83</v>
       </c>
-      <c r="I67" s="18">
+      <c r="I67" s="11">
         <v>0.65900000000000003</v>
       </c>
-      <c r="J67" s="18">
+      <c r="J67" s="11">
         <v>0.89900000000000002</v>
       </c>
-      <c r="K67" s="18">
+      <c r="K67" s="11">
         <v>0.89400000000000002</v>
       </c>
-      <c r="L67" s="18">
+      <c r="L67" s="11">
         <v>0.25819999999999999</v>
       </c>
-      <c r="M67" s="18">
+      <c r="M67" s="11">
         <v>0.3543</v>
       </c>
-      <c r="N67" s="18">
+      <c r="N67" s="11">
         <v>83.01</v>
       </c>
-      <c r="O67" s="18">
+      <c r="O67" s="11">
         <v>51.91</v>
       </c>
-      <c r="P67" s="18">
+      <c r="P67" s="11">
         <v>71.040000000000006</v>
       </c>
-      <c r="Q67" s="18">
+      <c r="Q67" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="18">
+      <c r="C69" s="17"/>
+      <c r="D69" s="11">
         <v>0.74399999999999999</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="11">
         <v>0.25800000000000001</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="11">
         <v>0.74399999999999999</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="11">
         <v>0.74399999999999999</v>
       </c>
-      <c r="H69" s="18">
+      <c r="H69" s="11">
         <v>0.74399999999999999</v>
       </c>
-      <c r="I69" s="18">
+      <c r="I69" s="11">
         <v>0.48499999999999999</v>
       </c>
-      <c r="J69" s="18">
+      <c r="J69" s="11">
         <v>0.748</v>
       </c>
-      <c r="K69" s="18">
+      <c r="K69" s="11">
         <v>0.69499999999999995</v>
       </c>
-      <c r="L69" s="18">
+      <c r="L69" s="11">
         <v>0.25769999999999998</v>
       </c>
-      <c r="M69" s="18">
+      <c r="M69" s="11">
         <v>0.49969999999999998</v>
       </c>
-      <c r="N69" s="18">
+      <c r="N69" s="11">
         <v>74.39</v>
       </c>
-      <c r="O69" s="18">
+      <c r="O69" s="11">
         <v>51.8</v>
       </c>
-      <c r="P69" s="18">
+      <c r="P69" s="11">
         <v>100.2</v>
       </c>
-      <c r="Q69" s="18">
+      <c r="Q69" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="18"/>
-      <c r="P70" s="18"/>
-      <c r="Q70" s="18"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="18">
+      <c r="C71" s="17"/>
+      <c r="D71" s="11">
         <v>0.78400000000000003</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="11">
         <v>0.216</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="11">
         <v>0.78500000000000003</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G71" s="11">
         <v>0.78400000000000003</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H71" s="11">
         <v>0.78500000000000003</v>
       </c>
-      <c r="I71" s="18">
+      <c r="I71" s="11">
         <v>0.56699999999999995</v>
       </c>
-      <c r="J71" s="18">
+      <c r="J71" s="11">
         <v>0.81699999999999995</v>
       </c>
-      <c r="K71" s="18">
+      <c r="K71" s="11">
         <v>0.77600000000000002</v>
       </c>
-      <c r="L71" s="18">
+      <c r="L71" s="11">
         <v>0.28699999999999998</v>
       </c>
-      <c r="M71" s="18">
+      <c r="M71" s="11">
         <v>0.41010000000000002</v>
       </c>
-      <c r="N71" s="18">
+      <c r="N71" s="11">
         <v>78.430000000000007</v>
       </c>
-      <c r="O71" s="18">
+      <c r="O71" s="11">
         <v>57.7</v>
       </c>
-      <c r="P71" s="18">
+      <c r="P71" s="11">
         <v>82.23</v>
       </c>
-      <c r="Q71" s="18">
+      <c r="Q71" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="14"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="13"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -7808,22 +7808,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A22:A44"/>
-    <mergeCell ref="C22:C44"/>
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="C17:C19"/>
     <mergeCell ref="C52:C56"/>
     <mergeCell ref="C58:C72"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A58:A72"/>
     <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A22:A44"/>
+    <mergeCell ref="C22:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7834,8 +7834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3608326-4641-4915-9C25-D7A28EB60034}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7847,23 +7847,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="15" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="15"/>
       <c r="Q1" s="9" t="s">
         <v>20</v>
       </c>
@@ -7922,1407 +7922,2247 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="D3" s="11">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0.16539999999999999</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0.31490000000000001</v>
+      </c>
+      <c r="N3" s="11">
+        <v>88.11</v>
+      </c>
+      <c r="O3" s="11">
+        <v>40.33</v>
+      </c>
+      <c r="P3" s="11">
+        <v>69.59</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="A4" s="12"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="11">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0.16259999999999999</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0.31480000000000002</v>
+      </c>
+      <c r="N5" s="11">
+        <v>88.11</v>
+      </c>
+      <c r="O5" s="11">
+        <v>39.64</v>
+      </c>
+      <c r="P5" s="11">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="D8" s="11">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.1714</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0.31890000000000002</v>
+      </c>
+      <c r="N8" s="11">
+        <v>86.13</v>
+      </c>
+      <c r="O8" s="11">
+        <v>41.78</v>
+      </c>
+      <c r="P8" s="11">
+        <v>70.47</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="11">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.188</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0.3407</v>
+      </c>
+      <c r="N10" s="11">
+        <v>85.81</v>
+      </c>
+      <c r="O10" s="11">
+        <v>37.53</v>
+      </c>
+      <c r="P10" s="11">
+        <v>75.31</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="11">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.629</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0.38540000000000002</v>
+      </c>
+      <c r="N12" s="11">
+        <v>85.14</v>
+      </c>
+      <c r="O12" s="11">
+        <v>36.21</v>
+      </c>
+      <c r="P12" s="11">
+        <v>85.17</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="11">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.215</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0.1419</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0.37669999999999998</v>
+      </c>
+      <c r="N14" s="11">
+        <v>85.81</v>
+      </c>
+      <c r="O14" s="11">
+        <v>34.6</v>
+      </c>
+      <c r="P14" s="11">
+        <v>83.25</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="7"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="D17" s="11">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.624</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="N17" s="11">
+        <v>83.16</v>
+      </c>
+      <c r="O17" s="11">
+        <v>47.42</v>
+      </c>
+      <c r="P17" s="11">
+        <v>81.41</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="11">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.159</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0.27829999999999999</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0.3664</v>
+      </c>
+      <c r="N19" s="11">
+        <v>77.55</v>
+      </c>
+      <c r="O19" s="11">
+        <v>67.86</v>
+      </c>
+      <c r="P19" s="11">
+        <v>80.959999999999994</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="7"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="D22" s="11">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0.2319</v>
+      </c>
+      <c r="M22" s="11">
+        <v>0.34510000000000002</v>
+      </c>
+      <c r="N22" s="11">
+        <v>82.51</v>
+      </c>
+      <c r="O22" s="11">
+        <v>56.54</v>
+      </c>
+      <c r="P22" s="11">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="11">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0.33179999999999998</v>
+      </c>
+      <c r="N24" s="11">
+        <v>86.13</v>
+      </c>
+      <c r="O24" s="11">
+        <v>48.37</v>
+      </c>
+      <c r="P24" s="11">
+        <v>77.33</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="11">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="M26" s="11">
+        <v>0.33210000000000001</v>
+      </c>
+      <c r="N26" s="11">
+        <v>83.82</v>
+      </c>
+      <c r="O26" s="11">
+        <v>55.23</v>
+      </c>
+      <c r="P26" s="11">
+        <v>73.38</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="11">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0.30669999999999997</v>
+      </c>
+      <c r="N28" s="11">
+        <v>86.13</v>
+      </c>
+      <c r="O28" s="11">
+        <v>47.18</v>
+      </c>
+      <c r="P28" s="11">
+        <v>67.790000000000006</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="11">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0.41010000000000002</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="N30" s="11">
+        <v>71.28</v>
+      </c>
+      <c r="O30" s="11">
+        <v>100</v>
+      </c>
+      <c r="P30" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="11">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="N32" s="11">
+        <v>85.81</v>
+      </c>
+      <c r="O32" s="11">
+        <v>48.97</v>
+      </c>
+      <c r="P32" s="11">
+        <v>75.150000000000006</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="11">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0.22159999999999999</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="N34" s="11">
+        <v>84.48</v>
+      </c>
+      <c r="O34" s="11">
+        <v>54.04</v>
+      </c>
+      <c r="P34" s="11">
+        <v>72.88</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="11">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0.21179999999999999</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0.32529999999999998</v>
+      </c>
+      <c r="N36" s="11">
+        <v>85.47</v>
+      </c>
+      <c r="O36" s="11">
+        <v>51.65</v>
+      </c>
+      <c r="P36" s="11">
+        <v>71.88</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="11">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0.1714</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0.31890000000000002</v>
+      </c>
+      <c r="N38" s="11">
+        <v>86.13</v>
+      </c>
+      <c r="O38" s="11">
+        <v>41.78</v>
+      </c>
+      <c r="P38" s="11">
+        <v>70.47</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="11">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0.628</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0.19120000000000001</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0.33560000000000001</v>
+      </c>
+      <c r="N40" s="11">
+        <v>84.48</v>
+      </c>
+      <c r="O40" s="11">
+        <v>46.61</v>
+      </c>
+      <c r="P40" s="11">
+        <v>74.17</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="11">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E42" s="11">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0.25879999999999997</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="N42" s="11">
+        <v>85.47</v>
+      </c>
+      <c r="O42" s="11">
+        <v>63.11</v>
+      </c>
+      <c r="P42" s="11">
+        <v>73.81</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="11">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="11">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0.41010000000000002</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="N44" s="11">
+        <v>71.28</v>
+      </c>
+      <c r="O44" s="11">
+        <v>100</v>
+      </c>
+      <c r="P44" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="7"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="7"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="7"/>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="11">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J49" s="11">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="L49" s="11">
+        <v>0.41010000000000002</v>
+      </c>
+      <c r="M49" s="11">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="N49" s="11">
+        <v>71.28</v>
+      </c>
+      <c r="O49" s="11">
+        <v>100</v>
+      </c>
+      <c r="P49" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="7"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B52" s="7"/>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="11">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="I53" s="11">
+        <v>0.439</v>
+      </c>
+      <c r="J53" s="11">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="K53" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="L53" s="11">
+        <v>0.31809999999999999</v>
+      </c>
+      <c r="M53" s="11">
+        <v>0.38219999999999998</v>
+      </c>
+      <c r="N53" s="11">
+        <v>75.91</v>
+      </c>
+      <c r="O53" s="11">
+        <v>77.56</v>
+      </c>
+      <c r="P53" s="11">
+        <v>84.46</v>
+      </c>
+      <c r="Q53" s="11">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="11">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E55" s="11">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F55" s="11">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="I55" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="J55" s="11">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="K55" s="11">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="L55" s="11">
+        <v>0.21929999999999999</v>
+      </c>
+      <c r="M55" s="11">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="N55" s="11">
+        <v>85.47</v>
+      </c>
+      <c r="O55" s="11">
+        <v>53.47</v>
+      </c>
+      <c r="P55" s="11">
+        <v>76.459999999999994</v>
+      </c>
+      <c r="Q55" s="11">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="7"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
+      <c r="D59" s="11">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="E59" s="11">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="F59" s="11">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="G59" s="11">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="I59" s="11">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="J59" s="11">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0.754</v>
+      </c>
+      <c r="L59" s="11">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="M59" s="11">
+        <v>0.38109999999999999</v>
+      </c>
+      <c r="N59" s="11">
+        <v>76.23</v>
+      </c>
+      <c r="O59" s="11">
+        <v>70.59</v>
+      </c>
+      <c r="P59" s="11">
+        <v>84.21</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="11">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="E61" s="11">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="F61" s="11">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="G61" s="11">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="I61" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="J61" s="11">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="K61" s="11">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="L61" s="11">
+        <v>0.16539999999999999</v>
+      </c>
+      <c r="M61" s="11">
+        <v>0.31490000000000001</v>
+      </c>
+      <c r="N61" s="11">
+        <v>88.11</v>
+      </c>
+      <c r="O61" s="11">
+        <v>40.33</v>
+      </c>
+      <c r="P61" s="11">
+        <v>69.59</v>
+      </c>
+      <c r="Q61" s="11">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="11">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="E63" s="11">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F63" s="11">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="G63" s="11">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="I63" s="11">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="J63" s="11">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="K63" s="11">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="L63" s="11">
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="M63" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="N63" s="11">
+        <v>85.81</v>
+      </c>
+      <c r="O63" s="11">
+        <v>48.97</v>
+      </c>
+      <c r="P63" s="11">
+        <v>75.150000000000006</v>
+      </c>
+      <c r="Q63" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="7"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="11">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E65" s="11">
+        <v>0.216</v>
+      </c>
+      <c r="F65" s="11">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="G65" s="11">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="H65" s="11">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="I65" s="11">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="J65" s="11">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="K65" s="11">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="L65" s="11">
+        <v>0.1875</v>
+      </c>
+      <c r="M65" s="11">
+        <v>0.31530000000000002</v>
+      </c>
+      <c r="N65" s="11">
+        <v>85.47</v>
+      </c>
+      <c r="O65" s="11">
+        <v>45.71</v>
+      </c>
+      <c r="P65" s="11">
+        <v>69.680000000000007</v>
+      </c>
+      <c r="Q65" s="11">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="7"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="11">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="E67" s="11">
+        <v>0.221</v>
+      </c>
+      <c r="F67" s="11">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="G67" s="11">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="I67" s="11">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="J67" s="11">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="K67" s="11">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="L67" s="11">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="M67" s="11">
+        <v>0.31509999999999999</v>
+      </c>
+      <c r="N67" s="11">
+        <v>86.13</v>
+      </c>
+      <c r="O67" s="11">
+        <v>48.39</v>
+      </c>
+      <c r="P67" s="11">
+        <v>69.64</v>
+      </c>
+      <c r="Q67" s="11">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="11">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E69" s="11">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="F69" s="11">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="G69" s="11">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="I69" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="J69" s="11">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="K69" s="11">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="L69" s="11">
+        <v>0.1784</v>
+      </c>
+      <c r="M69" s="11">
+        <v>0.38240000000000002</v>
+      </c>
+      <c r="N69" s="11">
+        <v>83.49</v>
+      </c>
+      <c r="O69" s="11">
+        <v>43.49</v>
+      </c>
+      <c r="P69" s="11">
+        <v>84.51</v>
+      </c>
+      <c r="Q69" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="11">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="E71" s="11">
+        <v>0.215</v>
+      </c>
+      <c r="F71" s="11">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="G71" s="11">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="I71" s="11">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="J71" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="K71" s="11">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="L71" s="11">
+        <v>0.22889999999999999</v>
+      </c>
+      <c r="M71" s="11">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="N71" s="11">
+        <v>84.15</v>
+      </c>
+      <c r="O71" s="11">
+        <v>55.81</v>
+      </c>
+      <c r="P71" s="11">
+        <v>78.77</v>
+      </c>
+      <c r="Q71" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="14"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="13"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -9359,6 +10199,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9373,23 +10214,23 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="15" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="15"/>
       <c r="Q1" s="9" t="s">
         <v>20</v>
       </c>
@@ -9448,13 +10289,13 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="3"/>
@@ -9473,8 +10314,8 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="12"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -9491,11 +10332,11 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -9550,13 +10391,13 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="3"/>
@@ -9575,9 +10416,9 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -9594,11 +10435,11 @@
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -9615,9 +10456,9 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="12"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -9634,11 +10475,11 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -9655,9 +10496,9 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="12"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -9674,11 +10515,11 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -9733,13 +10574,13 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="3"/>
@@ -9758,9 +10599,9 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="12"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -9777,11 +10618,11 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -9836,13 +10677,13 @@
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="3"/>
@@ -9861,9 +10702,9 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="12"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -9880,11 +10721,11 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -9901,9 +10742,9 @@
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="12"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -9920,11 +10761,11 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -9941,9 +10782,9 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="12"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -9960,11 +10801,11 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="12"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -9981,9 +10822,9 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="12"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -10000,11 +10841,11 @@
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="12"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -10021,9 +10862,9 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="12"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -10040,11 +10881,11 @@
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="12"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -10061,9 +10902,9 @@
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="12"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -10080,11 +10921,11 @@
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="12"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -10101,9 +10942,9 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="12"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -10120,11 +10961,11 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="12"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -10141,9 +10982,9 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="12"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -10160,11 +11001,11 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="12"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -10181,9 +11022,9 @@
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="12"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -10200,11 +11041,11 @@
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="12"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -10221,9 +11062,9 @@
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="12"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -10240,11 +11081,11 @@
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="12"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -10261,9 +11102,9 @@
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="12"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -10280,11 +11121,11 @@
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="13"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -10358,11 +11199,11 @@
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="7"/>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D48" s="3"/>
@@ -10381,11 +11222,11 @@
       <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="12"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -10402,9 +11243,9 @@
       <c r="Q49" s="3"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -10440,11 +11281,11 @@
       <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B52" s="7"/>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D52" s="3"/>
@@ -10463,11 +11304,11 @@
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="12"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -10484,9 +11325,9 @@
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="12"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -10503,11 +11344,11 @@
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="12"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -10524,9 +11365,9 @@
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="13"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -10562,11 +11403,11 @@
       <c r="Q57" s="3"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B58" s="7"/>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D58" s="3"/>
@@ -10585,11 +11426,11 @@
       <c r="Q58" s="3"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="12"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -10606,9 +11447,9 @@
       <c r="Q59" s="3"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="12"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -10625,11 +11466,11 @@
       <c r="Q60" s="3"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="12"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -10646,9 +11487,9 @@
       <c r="Q61" s="3"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="12"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -10665,11 +11506,11 @@
       <c r="Q62" s="3"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="12"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -10686,9 +11527,9 @@
       <c r="Q63" s="3"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="7"/>
-      <c r="C64" s="12"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -10705,11 +11546,11 @@
       <c r="Q64" s="3"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C65" s="12"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -10726,9 +11567,9 @@
       <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="7"/>
-      <c r="C66" s="12"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -10745,11 +11586,11 @@
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="12"/>
+      <c r="C67" s="17"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -10766,9 +11607,9 @@
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="12"/>
+      <c r="C68" s="17"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -10785,11 +11626,11 @@
       <c r="Q68" s="3"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="12"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -10806,9 +11647,9 @@
       <c r="Q69" s="3"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="12"/>
+      <c r="C70" s="17"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -10825,11 +11666,11 @@
       <c r="Q70" s="3"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="12"/>
+      <c r="C71" s="17"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -10846,9 +11687,9 @@
       <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="14"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="13"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -10866,12 +11707,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="C8:C14"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="C52:C56"/>
     <mergeCell ref="A58:A72"/>
@@ -10882,6 +11717,12 @@
     <mergeCell ref="C22:C44"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="C8:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
